--- a/Lista de materiales CNC Laser.xlsx
+++ b/Lista de materiales CNC Laser.xlsx
@@ -1,17 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50460310n\Downloads\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <bookViews>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Hoja 1" sheetId="1" r:id="rId4"/>
+    <sheet name="Hoja 1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
   <si>
     <t xml:space="preserve">MATERIAL </t>
   </si>
@@ -218,69 +226,132 @@
   </si>
   <si>
     <t>Os dejo enlaces de ejemplo compatibles con el enganche de la maquina.</t>
+  </si>
+  <si>
+    <t>ENLACES - OPCION 2</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/GKvmsnZmI6</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/3mmKsnZKSf</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/KGvKAQivaL</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/3D33NbiDO1</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/mvDGsbi3gR</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/GmKmssZv6s</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/KvDvAb9DsG</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/mGDGnAZ3Ac</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/mDvGsnIDAg</t>
+  </si>
+  <si>
+    <t>LASER 7W PWM</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/mDGvQAZDkK</t>
+  </si>
+  <si>
+    <t>https://www.banggood.com/custlink/vm3GNnIKkJ</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>LASER 3,5W PWM - es el que tengo en casa</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
     </font>
     <font>
       <u/>
+      <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
     </font>
-    <font/>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+  <cellStyleXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+  <cellXfs count="5">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -470,26 +541,31 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A3:F36"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="35.57"/>
-    <col customWidth="1" min="3" max="3" width="15.29"/>
-    <col customWidth="1" min="4" max="4" width="47.86"/>
-    <col customWidth="1" min="5" max="5" width="75.43"/>
+    <col min="1" max="1" width="35.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" customWidth="1"/>
+    <col min="4" max="5" width="47.85546875" customWidth="1"/>
+    <col min="6" max="6" width="75.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3">
+    <row r="3" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>0</v>
       </c>
@@ -503,18 +579,21 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F3" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="1"/>
     </row>
-    <row r="5">
+    <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B5" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
         <v>6</v>
@@ -522,13 +601,16 @@
       <c r="D5" s="2" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6">
+      <c r="E5" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
         <v>9</v>
@@ -536,13 +618,14 @@
       <c r="D6" s="2" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="7">
+      <c r="E6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="B7" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
         <v>12</v>
@@ -550,51 +633,58 @@
       <c r="D7" s="2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8">
+      <c r="E7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
       <c r="B8" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>15</v>
       </c>
       <c r="B9" s="1">
-        <v>4.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B10" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="11">
+      <c r="E10" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B11" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" ht="19.5" customHeight="1">
+      <c r="E11" s="2" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>20</v>
       </c>
       <c r="B12" s="1">
-        <v>10.0</v>
+        <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>21</v>
@@ -602,38 +692,43 @@
       <c r="D12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2"/>
+      <c r="F12" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
       <c r="B13" s="1">
-        <v>32.0</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="14">
+      <c r="E13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B14" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15">
+      <c r="E14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
       <c r="B15" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>29</v>
@@ -641,155 +736,168 @@
       <c r="D15" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
       <c r="B16" s="1">
-        <v>6.0</v>
+        <v>6</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="17">
+      <c r="E16" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
       <c r="B17" s="1">
-        <v>12.0</v>
+        <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="F17" s="1" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="B18" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>38</v>
       </c>
       <c r="B19" s="1">
-        <v>12.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>39</v>
       </c>
       <c r="B20" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="F20" s="1" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
         <v>42</v>
       </c>
       <c r="B21" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="F21" s="1" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
         <v>45</v>
       </c>
       <c r="B22" s="1">
-        <v>8.0</v>
+        <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="F22" s="1" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>48</v>
       </c>
       <c r="B23" s="1">
-        <v>4.0</v>
+        <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="E23" s="3" t="s">
+      <c r="F23" s="3" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>51</v>
       </c>
       <c r="B24" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
         <v>53</v>
       </c>
       <c r="B26" s="1">
-        <v>3.0</v>
+        <v>3</v>
       </c>
       <c r="D26" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="E26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F26" s="1" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="27">
+    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B27" s="1">
-        <v>1.0</v>
+        <v>1</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="28">
+      <c r="E27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
         <v>58</v>
       </c>
       <c r="B28" s="1">
-        <v>2.0</v>
+        <v>2</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="29">
+      <c r="E28" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
         <v>60</v>
       </c>
@@ -799,46 +907,70 @@
       <c r="D29" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="F29" s="1" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="30">
+    <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
         <v>64</v>
       </c>
       <c r="D30" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="1"/>
+      <c r="F30" s="1" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="33">
+    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="F33" s="1" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E35" t="s">
+        <v>79</v>
+      </c>
+      <c r="F35" s="4" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D36" t="s">
+        <v>82</v>
+      </c>
+      <c r="E36" t="s">
+        <v>83</v>
+      </c>
+      <c r="F36" t="s">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink r:id="rId1" ref="D5"/>
-    <hyperlink r:id="rId2" ref="D6"/>
-    <hyperlink r:id="rId3" ref="D7"/>
-    <hyperlink r:id="rId4" ref="D10"/>
-    <hyperlink r:id="rId5" ref="D11"/>
-    <hyperlink r:id="rId6" ref="D12"/>
-    <hyperlink r:id="rId7" ref="D13"/>
-    <hyperlink r:id="rId8" ref="D14"/>
-    <hyperlink r:id="rId9" ref="D15"/>
-    <hyperlink r:id="rId10" ref="D16"/>
-    <hyperlink r:id="rId11" ref="D26"/>
-    <hyperlink r:id="rId12" ref="D27"/>
-    <hyperlink r:id="rId13" ref="D28"/>
-    <hyperlink r:id="rId14" ref="D29"/>
+    <hyperlink ref="D5" r:id="rId1"/>
+    <hyperlink ref="D6" r:id="rId2"/>
+    <hyperlink ref="D7" r:id="rId3"/>
+    <hyperlink ref="D10" r:id="rId4"/>
+    <hyperlink ref="D11" r:id="rId5"/>
+    <hyperlink ref="D12" r:id="rId6"/>
+    <hyperlink ref="D13" r:id="rId7"/>
+    <hyperlink ref="D14" r:id="rId8"/>
+    <hyperlink ref="D15" r:id="rId9"/>
+    <hyperlink ref="D16" r:id="rId10"/>
+    <hyperlink ref="D26" r:id="rId11"/>
+    <hyperlink ref="D27" r:id="rId12"/>
+    <hyperlink ref="D28" r:id="rId13"/>
+    <hyperlink ref="D29" r:id="rId14"/>
+    <hyperlink ref="F35" r:id="rId15"/>
   </hyperlinks>
-  <drawing r:id="rId15"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/Lista de materiales CNC Laser.xlsx
+++ b/Lista de materiales CNC Laser.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50460310n\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\50460310n\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="91">
   <si>
     <t xml:space="preserve">MATERIAL </t>
   </si>
@@ -36,9 +36,6 @@
     <t>NOTAS</t>
   </si>
   <si>
-    <t xml:space="preserve">Perfil V-Slot 2020 </t>
-  </si>
-  <si>
     <t>500mm</t>
   </si>
   <si>
@@ -271,6 +268,30 @@
   </si>
   <si>
     <t>LASER 3,5W PWM - es el que tengo en casa</t>
+  </si>
+  <si>
+    <t>Tornillos M4x10</t>
+  </si>
+  <si>
+    <t>10mm</t>
+  </si>
+  <si>
+    <t>Para sujeción de correas y finales de carrera</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Perfil V-Slot 2040 </t>
+  </si>
+  <si>
+    <t>Tornillos M2x8</t>
+  </si>
+  <si>
+    <t>Para los finales de carrera</t>
+  </si>
+  <si>
+    <t>finales de carrera</t>
+  </si>
+  <si>
+    <t>https://amzn.to/2vvWAP3</t>
   </si>
 </sst>
 </file>
@@ -551,10 +572,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A3:F36"/>
+  <dimension ref="A3:F38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -579,7 +600,7 @@
         <v>3</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>4</v>
@@ -590,54 +611,54 @@
     </row>
     <row r="5" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>5</v>
+        <v>86</v>
       </c>
       <c r="B5" s="1">
         <v>3</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>7</v>
-      </c>
       <c r="E5" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1">
         <v>2</v>
       </c>
       <c r="C6" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>9</v>
-      </c>
-      <c r="D6" s="2" t="s">
-        <v>10</v>
       </c>
       <c r="E6" s="2"/>
     </row>
     <row r="7" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B7" s="1">
         <v>2</v>
       </c>
       <c r="C7" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>13</v>
       </c>
       <c r="E7" s="2"/>
     </row>
     <row r="8" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1">
         <v>4</v>
@@ -645,7 +666,7 @@
     </row>
     <row r="9" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1">
         <v>4</v>
@@ -653,127 +674,130 @@
     </row>
     <row r="10" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1">
         <v>12</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E10" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1">
         <v>6</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1">
         <v>10</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>21</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>22</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B13" s="1">
         <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="2"/>
     </row>
     <row r="14" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" s="1">
         <v>3</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B15" s="1">
         <v>3</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>30</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="1">
+        <v>8</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B16" s="1">
-        <v>6</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>33</v>
-      </c>
       <c r="E16" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B17" s="1">
         <v>12</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="18" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B18" s="1">
         <v>12</v>
@@ -781,7 +805,7 @@
     </row>
     <row r="19" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B19" s="1">
         <v>12</v>
@@ -789,168 +813,207 @@
     </row>
     <row r="20" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B20" s="1">
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>40</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B21" s="1">
         <v>4</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="F21" s="1" t="s">
         <v>43</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B22" s="1">
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="F22" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="F22" s="1" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B23" s="1">
         <v>4</v>
       </c>
       <c r="C23" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>49</v>
-      </c>
-      <c r="F23" s="3" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B24" s="1">
         <v>1</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="B25" s="1">
+        <v>8</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
       <c r="B26" s="1">
-        <v>3</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>76</v>
+        <v>4</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>34</v>
       </c>
       <c r="F26" s="1" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="B27" s="1">
-        <v>1</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E27" s="2"/>
+        <v>88</v>
+      </c>
     </row>
     <row r="28" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="B28" s="1">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E28" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="29" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="B29" s="1" t="s">
-        <v>61</v>
+        <v>55</v>
+      </c>
+      <c r="B29" s="1">
+        <v>1</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>63</v>
-      </c>
+        <v>56</v>
+      </c>
+      <c r="E29" s="2"/>
     </row>
     <row r="30" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B30" s="1">
+        <v>2</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E30" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A31" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="E32" s="1"/>
+      <c r="F32" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="E30" s="1"/>
-      <c r="F30" s="1" t="s">
+    </row>
+    <row r="33" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="1">
+        <v>2</v>
+      </c>
+      <c r="D33" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A35" s="1" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="F35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="F33" s="1" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="E35" t="s">
+    </row>
+    <row r="37" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="E37" t="s">
+        <v>78</v>
+      </c>
+      <c r="F37" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="F35" s="4" t="s">
+    </row>
+    <row r="38" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="D38" t="s">
+        <v>81</v>
+      </c>
+      <c r="E38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F38" t="s">
         <v>80</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="D36" t="s">
-        <v>82</v>
-      </c>
-      <c r="E36" t="s">
-        <v>83</v>
-      </c>
-      <c r="F36" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -965,11 +1028,11 @@
     <hyperlink ref="D14" r:id="rId8"/>
     <hyperlink ref="D15" r:id="rId9"/>
     <hyperlink ref="D16" r:id="rId10"/>
-    <hyperlink ref="D26" r:id="rId11"/>
-    <hyperlink ref="D27" r:id="rId12"/>
-    <hyperlink ref="D28" r:id="rId13"/>
-    <hyperlink ref="D29" r:id="rId14"/>
-    <hyperlink ref="F35" r:id="rId15"/>
+    <hyperlink ref="D28" r:id="rId11"/>
+    <hyperlink ref="D29" r:id="rId12"/>
+    <hyperlink ref="D30" r:id="rId13"/>
+    <hyperlink ref="D31" r:id="rId14"/>
+    <hyperlink ref="F37" r:id="rId15"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
